--- a/src/services/templates/templateUsers.xlsx
+++ b/src/services/templates/templateUsers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node_new/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A2E990-5B65-F345-A12C-4AA6B8EDCACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0373BC99-8D6B-8D43-8C96-56B905169DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="10080" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
@@ -162,7 +162,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +255,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,37 +578,36 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -610,80 +618,80 @@
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>26</v>

--- a/src/services/templates/templateUsers.xlsx
+++ b/src/services/templates/templateUsers.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node_new/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0373BC99-8D6B-8D43-8C96-56B905169DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E553E-E828-4641-84BE-092F957B22A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="10080" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="9140" yWindow="10300" windowWidth="40000" windowHeight="13960" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +124,82 @@
   </si>
   <si>
     <t>NotificationSubscription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@defaulttenant.com</t>
+  </si>
+  <si>
+    <t>["Administrator"]</t>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Taro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UiPath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pbkino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pbkino@example.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑存在するRoleを配列で</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ソンザイスル </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑パスワード複雑性に注意</t>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">フクザツセイニチュウイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインするユーザ名(重複不可)</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">チョウフク </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレスも重複不可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空もOK</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カラ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -182,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,13 +312,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +350,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,7 +679,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
@@ -707,4 +808,252 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEAC14C-EDB1-1D4F-B8F8-E08C63DD2BF5}">
+  <dimension ref="A1:AC5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="6.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/services/templates/templateUsers.xlsx
+++ b/src/services/templates/templateUsers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E553E-E828-4641-84BE-092F957B22A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEF8B2B-6440-F94E-B397-EC8E5A33DB0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="10300" windowWidth="40000" windowHeight="13960" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="4300" yWindow="2480" windowWidth="40000" windowHeight="13960" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -685,24 +685,24 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -720,13 +720,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
@@ -741,40 +741,40 @@
         <v>25</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>18</v>
@@ -816,30 +816,30 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -857,13 +857,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
@@ -878,40 +878,40 @@
         <v>25</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>18</v>
@@ -944,13 +944,13 @@
     <row r="2" spans="1:29">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>31</v>
@@ -963,10 +963,10 @@
         <v>32</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -989,13 +989,13 @@
     <row r="3" spans="1:29">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>37</v>
@@ -1034,13 +1034,13 @@
         <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>41</v>
